--- a/data/extracted_data/raw_round2/Fire_etal_2020_Fig2.xlsx
+++ b/data/extracted_data/raw_round2/Fire_etal_2020_Fig2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3d9723b3edd6c224/biotoxin_review/hab_depuration/data/extracted_data/raw_round2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{74D707BD-54E2-B447-B3E6-A7EE24589E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B515C7A-B362-FF48-93AC-9061D7BAF6FC}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{74D707BD-54E2-B447-B3E6-A7EE24589E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8501AB3E-66AB-D74B-AFF3-CD08D2032386}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{6A174269-EAE0-3E4A-AD84-5D7D9C8F532B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{6A174269-EAE0-3E4A-AD84-5D7D9C8F532B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="4">
   <si>
     <t>day</t>
   </si>
   <si>
     <t>toxicity</t>
+  </si>
+  <si>
+    <t>phase</t>
+  </si>
+  <si>
+    <t>Depuration</t>
   </si>
 </sst>
 </file>
@@ -95,6 +101,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,564 +404,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9110E416-2390-4443-BA9D-7C0526C7ECC2}">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:A68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2">
         <v>12.529832935560799</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>0</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3">
         <v>37.828162291169399</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
         <v>2.7088036117384</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
         <v>13.544018058690799</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>1.3126491646778</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1">
         <v>16.252821670429</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>8.3532219570405708</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
         <v>18.961625282167201</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>52.386634844868702</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1">
         <v>24.3792325056435</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>34.725536992840098</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="1">
         <v>29.7968397291197</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="1">
         <v>32.505643340857802</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>9.5465393794749307</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1">
         <v>40.632054176072401</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>2.6252983293556098</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
         <v>59.5936794582394</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="1">
         <v>62.302483069977598</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>2.6252983293556098</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
         <v>67.720090293453694</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>5.2505966587112098</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="1">
         <v>75.846501128668194</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>6.3245823389021503</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="1">
         <v>78.555304740406399</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>2.6252983293556098</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
         <v>81.264108352144603</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>5.2505966587112098</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="1">
         <v>83.972911963882694</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>16.945107398567998</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="1">
         <v>86.681715575620899</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>1.6706443914081099</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="1">
         <v>94.8081264108352</v>
       </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
         <v>94.8081264108352</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>5.0119331742243398</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
         <v>94.8081264108352</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>12.529832935560799</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
         <v>97.516930022573405</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>22.6730310262529</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="1">
         <v>105.643340857787</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>2.1479713603818502</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="1">
         <v>105.643340857787</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>1.55131264916467</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="1">
         <v>111.060948081264</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>3.4606205250596598</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
         <v>113.76975169300199</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>34.248210023866299</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="1">
         <v>116.47855530474</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>9.0692124105011906</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="1">
         <v>132.73137697516901</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>7.2792362768496304</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1">
         <v>135.44018058690699</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>0.119331742243439</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
         <v>135.44018058690699</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>3.6992840095465298</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
         <v>143.56659142212101</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>5.3699284009546497</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="1">
         <v>154.401805869074</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="1">
+      <c r="C33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1">
         <v>154.401805869074</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>3.5799522673030899</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" s="1">
         <v>154.401805869074</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>12.7684964200477</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1">
         <v>162.52821670428801</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>1.7899761336515401</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>3</v>
+      </c>
+      <c r="B37" s="1">
         <v>162.52821670428801</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>6.9212410501193196</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="1">
         <v>165.23702031602701</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>4.29594272076372</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="1">
         <v>165.23702031602701</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>12.0525059665871</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
         <v>165.23702031602701</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>14.9164677804295</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
         <v>165.23702031602701</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>15.5131264916467</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
         <v>173.363431151241</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
+      <c r="C42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>3</v>
+      </c>
+      <c r="B43" s="1">
         <v>192.32505643340801</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.119331742243439</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" s="1">
         <v>192.32505643340801</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>2.6252983293556098</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="1">
         <v>195.03386004514601</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>1.7899761336515401</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" s="1">
         <v>200.45146726862299</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>10.381861575179</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="1">
         <v>203.160270880361</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>3.22195704057278</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1">
         <v>232.95711060948</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>2.1479713603818502</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="1">
         <v>287.13318284424298</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>16.587112171837699</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" s="1">
         <v>289.84198645598201</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>3.22195704057278</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" s="1">
         <v>319.63882618510098</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>0.59665871121717995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>3</v>
+      </c>
+      <c r="B52" s="1">
         <v>319.63882618510098</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>3.3412887828162301</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B53" s="1">
         <v>319.63882618510098</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>7.6372315035799501</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B54" s="1">
         <v>333.18284424379198</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" s="1">
+      <c r="C54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>3</v>
+      </c>
+      <c r="B55" s="1">
         <v>354.85327313769699</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>4.53460620525059</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>3</v>
+      </c>
+      <c r="B56" s="1">
         <v>368.39729119638798</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>4.53460620525059</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>3</v>
+      </c>
+      <c r="B57" s="1">
         <v>414.44695259593601</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" s="1">
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>3</v>
+      </c>
+      <c r="B58" s="1">
         <v>430.69977426636501</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>1.3126491646778</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>3</v>
+      </c>
+      <c r="B59" s="1">
         <v>430.69977426636501</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>5.4892601431980799</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="1">
         <v>444.24379232505601</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>0.119331742243439</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61" s="1">
         <v>487.58465011286597</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>15.3937947494033</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>3</v>
+      </c>
+      <c r="B62" s="1">
         <v>498.41986455981902</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" s="1">
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>3</v>
+      </c>
+      <c r="B63" s="1">
         <v>568.84875846501097</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>0.95465393794749698</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>3</v>
+      </c>
+      <c r="B64" s="1">
         <v>888.48758465011201</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>0.119331742243439</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" s="1">
         <v>907.44920993227902</v>
       </c>
-      <c r="B65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" s="1">
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>3</v>
+      </c>
+      <c r="B66" s="1">
         <v>1002.25733634311</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>5.6085918854415198</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>3</v>
+      </c>
+      <c r="B67" s="1">
         <v>1170.2031602708801</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>0.119331742243439</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>3</v>
+      </c>
+      <c r="B68" s="1">
         <v>1186.4559819413</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B68">
-    <sortCondition ref="A1:A68"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C68">
+    <sortCondition ref="B1:B68"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
